--- a/文档/城邦.xlsx
+++ b/文档/城邦.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Admin\Documents\GitHub\Sistine_civ6mod\文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADCB308D-67C1-486F-B973-3767A98AD40E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58928C87-226A-471A-B405-2228DDB7C451}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4320" yWindow="4335" windowWidth="27915" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$48</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -33,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="205">
   <si>
     <t>名称</t>
   </si>
@@ -191,345 +194,993 @@
     <t>普雷斯拉夫</t>
   </si>
   <si>
+    <t>瓦莱塔</t>
+  </si>
+  <si>
+    <t>可用信仰购买市中心和军营建筑。城墙购买有减价，但只能用信仰购买。</t>
+  </si>
+  <si>
+    <t>沃林</t>
+  </si>
+  <si>
+    <t>陆地单位击杀文明或城邦单位获得大将军点数，海军单位击杀文明或城邦单位获得海军统帅点数，数值为敌方单位战斗力的25%（标准速度下）。</t>
+  </si>
+  <si>
+    <t>安善</t>
+  </si>
+  <si>
+    <t>科</t>
+  </si>
+  <si>
+    <t>每件文学巨作+2科技，每项遗物和文物+1科技。</t>
+  </si>
+  <si>
+    <t>博洛尼亚</t>
+  </si>
+  <si>
+    <t>您有建筑的区域提供+1对应类型的伟人点数（剧院则提供大文、大艺、大音点数）</t>
+  </si>
+  <si>
+    <t>菲斯</t>
+  </si>
+  <si>
+    <t>当您首次使用单位转变一座城市的主流宗教时，从这座城市的每个人口获得20科技值。</t>
+  </si>
+  <si>
+    <t>日内瓦</t>
+  </si>
+  <si>
+    <t>当您不与任何文明处于战争时，您的城市获得+15%科技值。</t>
+  </si>
+  <si>
+    <t>哈图沙</t>
+  </si>
+  <si>
+    <t>提供您已发现但未拥有的战略资源，每种2份每回合。</t>
+  </si>
+  <si>
+    <t>米特拉</t>
+  </si>
+  <si>
+    <t>有学院的城市+15%人口增长速度。</t>
+  </si>
+  <si>
+    <t>那烂陀</t>
+  </si>
+  <si>
+    <t>建造者可建造大寺改良设施。</t>
+  </si>
+  <si>
+    <t>塔鲁加</t>
+  </si>
+  <si>
+    <t>您的城市从其拥有的每种战略资源获得+5%科技值。</t>
+  </si>
+  <si>
+    <t>威尼斯</t>
+  </si>
+  <si>
+    <t>商</t>
+  </si>
+  <si>
+    <t>通往外国的贸易路线从终点处的每个奢侈资源获得+1金币。</t>
+  </si>
+  <si>
+    <t>文莱湾（斯里巴加湾）</t>
+  </si>
+  <si>
+    <t>您在外国城市的贸易站为您经过或前往所在城市的贸易路线提供+1金币。</t>
+  </si>
+  <si>
+    <t>应为“斯里巴加湾”。英文原文脑瘫了。</t>
+  </si>
+  <si>
+    <t>卡霍基亚</t>
+  </si>
+  <si>
+    <t>建造者可建造卡霍基亚土丘改良设施。</t>
+  </si>
+  <si>
+    <t>罕萨</t>
+  </si>
+  <si>
+    <t>一条商路每长5单元格，便使您获得+1金币。</t>
+  </si>
+  <si>
+    <t>您的商人在水域单元格免疫劫掠。</t>
+  </si>
+  <si>
+    <t>马斯喀特</t>
+  </si>
+  <si>
+    <t>有商业中心的城市+1宜居度。</t>
+  </si>
+  <si>
+    <t>撒马尔罕</t>
+  </si>
+  <si>
+    <t>建造者可建造圆顶市集改良设施。</t>
+  </si>
+  <si>
+    <t>桑给巴尔</t>
+  </si>
+  <si>
+    <t>获得肉桂和丁香两种奢侈资源。这两种资源无法以其他方式获得，每个提供6宜居度。</t>
+  </si>
+  <si>
+    <t>塔那那利佛</t>
+  </si>
+  <si>
+    <t>文</t>
+  </si>
+  <si>
+    <t>每获得一个伟人，+2%文化值（上限30%）</t>
+  </si>
+  <si>
+    <t>阿瑜陀耶</t>
+  </si>
+  <si>
+    <t>建造建筑完成时获得其造价10%的文化。</t>
+  </si>
+  <si>
+    <t>卡瓜纳</t>
+  </si>
+  <si>
+    <t>建造者可建造巴特依球场改良设施。</t>
+  </si>
+  <si>
+    <t>库马西</t>
+  </si>
+  <si>
+    <t>起点城市的每个专业化区域为您通往城邦的贸易路线提供+2文化和+1金币。</t>
+  </si>
+  <si>
+    <t>您的城市获得全部来自水源的住房，也即全部视作与河流相邻。</t>
+  </si>
+  <si>
+    <t>南马都尔</t>
+  </si>
+  <si>
+    <t>您与海岸相邻的城区提供+2文化。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>您与海岸相邻的城区提供</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+1文化</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <t>拉帕努伊</t>
+  </si>
+  <si>
+    <t>建造者可建造摩艾石像改良设施。</t>
+  </si>
+  <si>
+    <t>维尔纽斯</t>
+  </si>
+  <si>
+    <t>剧院广场从您目前拥有的最高等级同盟获得相邻加成，每级+50%。</t>
+  </si>
+  <si>
+    <t>阿尔马</t>
+  </si>
+  <si>
+    <t>宗</t>
+  </si>
+  <si>
+    <t>建造者可建造修道院改良设施。</t>
+  </si>
+  <si>
+    <t>欣盖提</t>
+  </si>
+  <si>
+    <t>国内和国际贸易路线从该城中您创立的宗教或您的主流宗教的每个信徒获得+1信仰。</t>
+  </si>
+  <si>
+    <t>康提</t>
+  </si>
+  <si>
+    <t>所有遗物提供+50%信仰，每次发现自然奇观均为您提供一份遗物。</t>
+  </si>
+  <si>
+    <t>拉文塔</t>
+  </si>
+  <si>
+    <t>建造者可建造巨神头像改良设施。</t>
+  </si>
+  <si>
+    <t>纳斯卡</t>
+  </si>
+  <si>
+    <t>建造者可建造纳斯卡线条改良设施。</t>
+  </si>
+  <si>
+    <t>梵蒂冈城</t>
+  </si>
+  <si>
+    <t>当您激活伟人时，伟人向10格以内的城市传播400点您创立（或您的主流）宗教的宗教压力。</t>
+  </si>
+  <si>
+    <t>埃里温</t>
+  </si>
+  <si>
+    <t>您的使徒在升级时可以选择任意类型的晋升，而不需要随机抽取。</t>
+  </si>
+  <si>
+    <t>耶路撒冷</t>
+  </si>
+  <si>
+    <t>您有圣地的城市释放相当于圣城的宗教压力。</t>
+  </si>
+  <si>
+    <t>强度说明</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>海图专精城邦，有奥克兰的海图随便玩，没奥克兰的海图是地狱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>调整建议</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无（很难动）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>简单朴素的每座城一丁点锤子，就这样吧</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>朴素，别管了</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要加强</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>30%吧大概</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数值很不错，区域位吞噬者，从白嫖的神变成了普通人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>很好使，启动爆炸慢，综合来看不用管</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>外商两锤，不强</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>再加一点点文化？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>原版：55力火枪痛击40力披甲强；sis：60力格鲁吉亚精神</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>反正没法改，差不多得了</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>本质上是粮锤兑换瓶琴，计算方式是改良加成减去矿山/农田的产出</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>升级很快，打起来舒服</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有必要调</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>谁征服手头能卡一堆鸽子</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>摆！</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小心马里</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>铁废物</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>加产吧</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>古希腊掌握城墙的神（君主制快乐邦）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不动，提升速度但是并没有额外上限，城墙本来就是半价卡</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>对伙伴骑兵的拙劣模仿，我仗都打完了大将军还没出来</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无，因为高了容易大将军井喷</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>强度看能不能古典黄金，数值上作为过渡极为优秀</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数值有点高</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>某种程度上是宗邦</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>传教士走的没有宗教自动传播快，印度可以考虑，十字军马镫一波的移动学院</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在sistine打无战飞属实是逆天而行了，数值很不错但就这样吧</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>没什么用，数值太低</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>稍微再给点</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大寺数值多少有点离谱了</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>记得刀</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数值还行</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>反正不好改，摆了吧</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>两块钱差不多了，铁废物</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>多给几金或者给文化（）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数值太低的铁废物</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>看在党国的面子上，捞废物一把</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2宜居，相当扎实</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>海图葡萄牙还好说，其他的两块钱差不多</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>捞一把</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>治疗血压型城邦，完全没有数值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你的一切加宜居度都是对土墩的拙劣模仿</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数值上其实还行</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>铁废物改良</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>加</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个城邦捞起全国宜居，朴实无华的强</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>可刀，必要性不强</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>稀有的面板文，启动极其缓慢</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不动</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用处不大不小的锤转文</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>废物ui</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>下刀不需要太重，城邦区域数量少，外商质量一般，商人价格哈人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2文吧</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>杀杀杀</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>比较强力的超大份文化输出</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小刀一下</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>原版没啥用，Sistine有用归有用，没必要刀</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>铁废物ui</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>稍微再给点鸽子，反正全卡手里</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2鸽吧</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>女刚果记得杀</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>垃圾ui</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>没啥用就是了</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>宗胜领域大神</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>接下来表演无传教士洗穿半个大陆</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>起点城市的每个专业化区域为您通往城邦的贸易路线提供</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+2文化</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>国际贸易路线从起点城市的每个区域获得+2信仰。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>获得肉桂和丁香两种奢侈资源。这两种资源无法以其他方式获得，每个提供</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>宜居度。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>每个军营建筑使陆地战斗单位和支援单位的金币购买价格降低</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>15%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不变</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>您的城市在进行项目时</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+30%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>生产力。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>您的城市从本城有贸易路线通往的每个外国文明获得</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+3生产力</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>近战</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（不含反骑兵）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的攻击对城市城墙造成全额伤害。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>您可以使用信仰</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（产能和金钱？）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>购买特色单位尼昂战士。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>每个军营建筑每回合+2忠诚度。</t>
-  </si>
-  <si>
-    <t>瓦莱塔</t>
-  </si>
-  <si>
-    <t>可用信仰购买市中心和军营建筑。城墙购买有减价，但只能用信仰购买。</t>
-  </si>
-  <si>
-    <t>沃林</t>
-  </si>
-  <si>
-    <t>陆地单位击杀文明或城邦单位获得大将军点数，海军单位击杀文明或城邦单位获得海军统帅点数，数值为敌方单位战斗力的25%（标准速度下）。</t>
-  </si>
-  <si>
-    <t>安善</t>
-  </si>
-  <si>
-    <t>科</t>
-  </si>
-  <si>
-    <t>每件文学巨作+2科技，每项遗物和文物+1科技。</t>
-  </si>
-  <si>
-    <r>
-      <t>每件文学巨作</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>您的轻重骑兵在丘陵上+5战斗力。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>复活Pre-XP的效果</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>陆地单位击杀文明或城邦单位获得大将军点数，海军单位击杀文明或城邦单位获得海军统帅点数，数值为敌方单位战斗力的25%（标准速度下）。</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>+4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>科技，每项遗物和文物</t>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>每回合提供+2大将军点数。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>当您首次使用单位转变一座城市的主流宗教时，从这座城市的每个人口获得</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>+2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>科技。</t>
-    </r>
-  </si>
-  <si>
-    <t>博洛尼亚</t>
-  </si>
-  <si>
-    <t>您有建筑的区域提供+1对应类型的伟人点数（剧院则提供大文、大艺、大音点数）</t>
-  </si>
-  <si>
-    <t>菲斯</t>
-  </si>
-  <si>
-    <t>当您首次使用单位转变一座城市的主流宗教时，从这座城市的每个人口获得20科技值。</t>
-  </si>
-  <si>
-    <t>日内瓦</t>
-  </si>
-  <si>
-    <t>当您不与任何文明处于战争时，您的城市获得+15%科技值。</t>
-  </si>
-  <si>
-    <t>哈图沙</t>
-  </si>
-  <si>
-    <t>提供您已发现但未拥有的战略资源，每种2份每回合。</t>
-  </si>
-  <si>
-    <t>米特拉</t>
-  </si>
-  <si>
-    <t>有学院的城市+15%人口增长速度。</t>
-  </si>
-  <si>
-    <t>那烂陀</t>
-  </si>
-  <si>
-    <t>建造者可建造大寺改良设施。</t>
-  </si>
-  <si>
-    <t>塔鲁加</t>
-  </si>
-  <si>
-    <t>您的城市从其拥有的每种战略资源获得+5%科技值。</t>
-  </si>
-  <si>
-    <t>威尼斯</t>
-  </si>
-  <si>
-    <t>商</t>
-  </si>
-  <si>
-    <t>通往外国的贸易路线从终点处的每个奢侈资源获得+1金币。</t>
-  </si>
-  <si>
-    <t>文莱湾（斯里巴加湾）</t>
-  </si>
-  <si>
-    <t>您在外国城市的贸易站为您经过或前往所在城市的贸易路线提供+1金币。</t>
-  </si>
-  <si>
-    <t>应为“斯里巴加湾”。英文原文脑瘫了。</t>
-  </si>
-  <si>
-    <t>卡霍基亚</t>
-  </si>
-  <si>
-    <t>建造者可建造卡霍基亚土丘改良设施。</t>
-  </si>
-  <si>
-    <t>罕萨</t>
-  </si>
-  <si>
-    <t>一条商路每长5单元格，便使您获得+1金币。</t>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>30科技值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>斗气化</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>🐎</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>有学院的城市</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+2食物，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+15%人口增长速度。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在UI部分砍</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（所有？）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>贸易路线从终点处的每个奢侈资源获得+2金币。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>一条商路每长</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2单元格</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，便使您获得+1金币。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>要么2要么4，没法填别的数值了</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>摩加迪沙</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>摩亨佐达罗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在UI部分拉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>您有圣地的城市（含圣城，因为我们没法去掉圣城）+100%宗教压力</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>再想想</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>有商业中心的城市+1宜居度，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>若有银行再+1宜居度</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>您在外国城市的贸易站为您经过或前往所在城市的贸易路线提供</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>金币。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>您的商人在水域单元格免疫劫掠。</t>
-  </si>
-  <si>
-    <t>马斯喀特</t>
-  </si>
-  <si>
-    <t>有商业中心的城市+1宜居度。</t>
-  </si>
-  <si>
-    <t>撒马尔罕</t>
-  </si>
-  <si>
-    <t>建造者可建造圆顶市集改良设施。</t>
-  </si>
-  <si>
-    <t>桑给巴尔</t>
-  </si>
-  <si>
-    <t>获得肉桂和丁香两种奢侈资源。这两种资源无法以其他方式获得，每个提供6宜居度。</t>
-  </si>
-  <si>
-    <t>塔那那利佛</t>
-  </si>
-  <si>
-    <t>文</t>
-  </si>
-  <si>
-    <t>每获得一个伟人，+2%文化值（上限30%）</t>
-  </si>
-  <si>
-    <t>阿瑜陀耶</t>
-  </si>
-  <si>
-    <t>建造建筑完成时获得其造价10%的文化。</t>
-  </si>
-  <si>
-    <t>卡瓜纳</t>
-  </si>
-  <si>
-    <t>建造者可建造巴特依球场改良设施。</t>
-  </si>
-  <si>
-    <t>库马西</t>
-  </si>
-  <si>
-    <t>起点城市的每个专业化区域为您通往城邦的贸易路线提供+2文化和+1金币。</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>起点城市的每个专业化区域为您通往城邦的贸易路线提供</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>+1文化</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>。</t>
-    </r>
-  </si>
-  <si>
-    <t>摩亨佐达罗</t>
-  </si>
-  <si>
-    <t>您的城市获得全部来自水源的住房，也即全部视作与河流相邻。</t>
-  </si>
-  <si>
-    <t>南马都尔</t>
-  </si>
-  <si>
-    <t>您与海岸相邻的城区提供+2文化。</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>您与海岸相邻的城区提供</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>+1文化</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>。</t>
-    </r>
-  </si>
-  <si>
-    <t>拉帕努伊</t>
-  </si>
-  <si>
-    <t>建造者可建造摩艾石像改良设施。</t>
-  </si>
-  <si>
-    <t>维尔纽斯</t>
-  </si>
-  <si>
-    <t>剧院广场从您目前拥有的最高等级同盟获得相邻加成，每级+50%。</t>
-  </si>
-  <si>
-    <t>阿尔马</t>
-  </si>
-  <si>
-    <t>宗</t>
-  </si>
-  <si>
-    <t>建造者可建造修道院改良设施。</t>
-  </si>
-  <si>
-    <t>欣盖提</t>
-  </si>
-  <si>
-    <t>国内和国际贸易路线从该城中您创立的宗教或您的主流宗教的每个信徒获得+1信仰。</t>
-  </si>
-  <si>
-    <t>国际贸易路线从起点城市的每个区域获得+1信仰。</t>
-  </si>
-  <si>
-    <t>康提</t>
-  </si>
-  <si>
-    <t>所有遗物提供+50%信仰，每次发现自然奇观均为您提供一份遗物。</t>
-  </si>
-  <si>
-    <t>拉文塔</t>
-  </si>
-  <si>
-    <t>建造者可建造巨神头像改良设施。</t>
-  </si>
-  <si>
-    <t>纳斯卡</t>
-  </si>
-  <si>
-    <t>建造者可建造纳斯卡线条改良设施。</t>
-  </si>
-  <si>
-    <t>梵蒂冈城</t>
-  </si>
-  <si>
-    <t>当您激活伟人时，伟人向10格以内的城市传播400点您创立（或您的主流）宗教的宗教压力。</t>
-  </si>
-  <si>
-    <t>埃里温</t>
-  </si>
-  <si>
-    <t>您的使徒在升级时可以选择任意类型的晋升，而不需要随机抽取。</t>
-  </si>
-  <si>
-    <t>耶路撒冷</t>
-  </si>
-  <si>
-    <t>您有圣地的城市释放相当于圣城的宗教压力。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -549,6 +1200,28 @@
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI Emoji"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -573,14 +1246,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1063,10 +1739,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E48"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:H48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1074,9 +1751,11 @@
     <col min="1" max="1" width="24.375" customWidth="1"/>
     <col min="3" max="4" width="38.875" customWidth="1"/>
     <col min="5" max="5" width="16.625" customWidth="1"/>
+    <col min="7" max="7" width="61.25" customWidth="1"/>
+    <col min="8" max="8" width="26.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1092,8 +1771,14 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="G1" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -1107,8 +1792,14 @@
         <v>7</v>
       </c>
       <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="G2" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -1122,8 +1813,14 @@
         <v>10</v>
       </c>
       <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="G3" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -1133,12 +1830,15 @@
       <c r="C4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>12</v>
+      <c r="D4" s="3" t="s">
+        <v>181</v>
       </c>
       <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="G4" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -1148,12 +1848,18 @@
       <c r="C5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>14</v>
+      <c r="D5" s="3" t="s">
+        <v>182</v>
       </c>
       <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="G5" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
@@ -1169,8 +1875,11 @@
       <c r="E6" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="G6" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>19</v>
       </c>
@@ -1180,12 +1889,15 @@
       <c r="C7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>20</v>
+      <c r="D7" s="3" t="s">
+        <v>181</v>
       </c>
       <c r="E7" s="1"/>
-    </row>
-    <row r="8" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="G7" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>21</v>
       </c>
@@ -1195,12 +1907,18 @@
       <c r="C8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>22</v>
+      <c r="D8" s="3" t="s">
+        <v>183</v>
       </c>
       <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="G8" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>23</v>
       </c>
@@ -1210,12 +1928,18 @@
       <c r="C9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>25</v>
+      <c r="D9" s="3" t="s">
+        <v>184</v>
       </c>
       <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="G9" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>26</v>
       </c>
@@ -1225,12 +1949,15 @@
       <c r="C10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>27</v>
+      <c r="D10" s="3" t="s">
+        <v>181</v>
       </c>
       <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="G10" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>28</v>
       </c>
@@ -1240,12 +1967,18 @@
       <c r="C11" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>29</v>
+      <c r="D11" s="3" t="s">
+        <v>181</v>
       </c>
       <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="G11" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>30</v>
       </c>
@@ -1255,12 +1988,18 @@
       <c r="C12" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>31</v>
+      <c r="D12" s="3" t="s">
+        <v>185</v>
       </c>
       <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="G12" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>32</v>
       </c>
@@ -1270,545 +2009,773 @@
       <c r="C13" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>33</v>
+      <c r="D13" s="3" t="s">
+        <v>180</v>
       </c>
       <c r="E13" s="1"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="G13" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="27" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E14" s="1"/>
-    </row>
-    <row r="15" spans="1:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="A15" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="G15" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="54" x14ac:dyDescent="0.15">
+      <c r="A16" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E15" s="1"/>
-    </row>
-    <row r="16" spans="1:5" ht="54" x14ac:dyDescent="0.15">
-      <c r="A16" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="G16" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="27" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E16" s="1"/>
-    </row>
-    <row r="17" spans="1:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="A17" s="1" t="s">
+      <c r="B17" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="D17" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="G17" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="27" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="B18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E17" s="1"/>
-    </row>
-    <row r="18" spans="1:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="A18" s="1" t="s">
+      <c r="D18" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E18" s="1"/>
+      <c r="G18" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="A19" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C18" s="1" t="s">
+      <c r="B19" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E18" s="1"/>
-    </row>
-    <row r="19" spans="1:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="A19" s="1" t="s">
+      <c r="D19" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="E19" s="1"/>
+      <c r="G19" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="27" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C19" s="1" t="s">
+      <c r="B20" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E19" s="1"/>
-    </row>
-    <row r="20" spans="1:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="A20" s="1" t="s">
+      <c r="D20" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E20" s="1"/>
+      <c r="G20" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="27" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C20" s="1" t="s">
+      <c r="B21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E20" s="1"/>
-    </row>
-    <row r="21" spans="1:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="A21" s="1" t="s">
+      <c r="D21" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E21" s="1"/>
+      <c r="G21" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A22" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C21" s="1" t="s">
+      <c r="B22" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E21" s="1"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A22" s="1" t="s">
+      <c r="D22" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="E22" s="1"/>
+      <c r="G22" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A23" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C22" s="1" t="s">
+      <c r="B23" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E22" s="1"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A23" s="1" t="s">
+      <c r="D23" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="E23" s="1"/>
+      <c r="G23" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="27" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C23" s="1" t="s">
+      <c r="B24" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E23" s="1"/>
-    </row>
-    <row r="24" spans="1:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="A24" s="1" t="s">
+      <c r="D24" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E24" s="1"/>
+      <c r="G24" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="A25" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C24" s="1" t="s">
+      <c r="B25" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="C25" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="E25" s="1"/>
+      <c r="G25" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A26" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E24" s="1"/>
-    </row>
-    <row r="25" spans="1:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="A25" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C25" s="1" t="s">
+      <c r="C26" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E25" s="1"/>
-    </row>
-    <row r="26" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A26" s="1" t="s">
+      <c r="D26" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C26" s="1" t="s">
+      <c r="G26" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A27" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E26" s="1" t="s">
+      <c r="B27" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A27" s="1" t="s">
+      <c r="D27" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E27" s="1"/>
+      <c r="G27" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="A28" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C27" s="1" t="s">
+      <c r="B28" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D27" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E27" s="1"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A28" s="1" t="s">
+      <c r="D28" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A29" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C28" s="1" t="s">
+      <c r="D29" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E29" s="1"/>
+      <c r="G29" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="A30" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D28" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E28" s="1"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A29" s="1" t="s">
+      <c r="B30" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C29" s="1" t="s">
+      <c r="D30" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="E30" s="1"/>
+      <c r="G30" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A31" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D29" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E29" s="1"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A30" s="1" t="s">
+      <c r="B31" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C30" s="1" t="s">
+      <c r="D31" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E31" s="1"/>
+      <c r="G31" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="A32" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D30" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E30" s="1"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A31" s="1" t="s">
+      <c r="B32" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C31" s="1" t="s">
+      <c r="D32" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="E32" s="1"/>
+      <c r="G32" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D31" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E31" s="1"/>
-    </row>
-    <row r="32" spans="1:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="A32" s="1" t="s">
+      <c r="B33" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C32" s="1" t="s">
+      <c r="C33" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D32" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E32" s="1"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A33" s="1" t="s">
+      <c r="D33" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E33" s="1"/>
+      <c r="G33" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B34" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="D34" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E34" s="1"/>
+      <c r="G34" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D33" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E33" s="1"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A34" s="1" t="s">
+      <c r="B35" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C34" s="1" t="s">
+      <c r="D35" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E35" s="1"/>
+      <c r="G35" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="A36" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D34" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E34" s="1"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A35" s="1" t="s">
+      <c r="B36" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E35" s="1"/>
-    </row>
-    <row r="36" spans="1:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="A36" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>85</v>
+      <c r="D36" s="3" t="s">
+        <v>177</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="A37" s="1" t="s">
-        <v>86</v>
+      <c r="G36" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="27" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="3" t="s">
+        <v>198</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>181</v>
       </c>
       <c r="E37" s="1"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="G37" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="G38" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="E39" s="1"/>
+      <c r="G39" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="27" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E40" s="1"/>
+      <c r="G40" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A41" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C39" s="1" t="s">
+      <c r="C41" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D39" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E39" s="1"/>
-    </row>
-    <row r="40" spans="1:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="A40" s="1" t="s">
+      <c r="D41" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="E41" s="1"/>
+      <c r="G41" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="A42" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C40" s="1" t="s">
+      <c r="B42" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D40" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="E40" s="1"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A41" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="E41" s="1"/>
-    </row>
-    <row r="42" spans="1:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="A42" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>99</v>
-      </c>
       <c r="D42" s="2" t="s">
-        <v>100</v>
+        <v>178</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="G42" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E43" s="1"/>
+      <c r="G43" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A44" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="E44" s="1"/>
+      <c r="G44" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A45" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="E45" s="1"/>
+      <c r="G45" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C43" s="1" t="s">
+      <c r="B46" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C46" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D43" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="E43" s="1"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A44" s="1" t="s">
+      <c r="D46" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="E46" s="1"/>
+      <c r="G46" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="27" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C44" s="1" t="s">
+      <c r="B47" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D44" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="E44" s="1"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A45" s="1" t="s">
+      <c r="D47" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="E47" s="1"/>
+      <c r="G47" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="A48" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C45" s="1" t="s">
+      <c r="B48" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D45" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="E45" s="1"/>
-    </row>
-    <row r="46" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A46" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E46" s="1"/>
-    </row>
-    <row r="47" spans="1:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="A47" s="1" t="s">
+      <c r="D48" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="E48" s="1"/>
+      <c r="G48" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="H48" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="B47" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="E47" s="1"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A48" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E48" s="1"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:H48" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="（所有？）贸易路线从终点处的每个奢侈资源获得+2金币。"/>
+        <filter val="当您首次使用单位转变一座城市的主流宗教时，从这座城市的每个人口获得30科技值。"/>
+        <filter val="国际贸易路线从起点城市的每个区域获得+2信仰。"/>
+        <filter val="获得肉桂和丁香两种奢侈资源。这两种资源无法以其他方式获得，每个提供4宜居度。"/>
+        <filter val="建造者可建造卡霍基亚土丘改良设施。"/>
+        <filter val="建造者可建造圆顶市集改良设施。"/>
+        <filter val="近战（不含反骑兵）的攻击对城市城墙造成全额伤害。"/>
+        <filter val="陆地单位击杀文明或城邦单位获得大将军点数，海军单位击杀文明或城邦单位获得海军统帅点数，数值为敌方单位战斗力的25%（标准速度下）。每回合提供+2大将军点数。"/>
+        <filter val="每个军营建筑使陆地战斗单位和支援单位的金币购买价格降低15%。"/>
+        <filter val="每种改良的资源类型为建有工业区的城市提供+1生产力。研究工业化后，该加成变为+2生产力。"/>
+        <filter val="您的城市从本城有贸易路线通往的每个外国文明获得+3生产力。"/>
+        <filter val="您的城市建造建筑和奇观+15%生产力。"/>
+        <filter val="您的城市在进行项目时+30%生产力。"/>
+        <filter val="您的轻重骑兵在丘陵上+5战斗力。"/>
+        <filter val="您的商人在水域单元格免疫劫掠。"/>
+        <filter val="您可以使用信仰（产能和金钱？）购买特色单位尼昂战士。"/>
+        <filter val="您有圣地的城市（含圣城，因为我们没法去掉圣城）+100%宗教压力。"/>
+        <filter val="您与海岸相邻的城区提供+1文化。"/>
+        <filter val="您在外国城市的贸易站为您经过或前往所在城市的贸易路线提供+1金币。"/>
+        <filter val="起点城市的每个专业化区域为您通往城邦的贸易路线提供+2文化。"/>
+        <filter val="一条商路每长2单元格，便使您获得+1金币。"/>
+        <filter val="有商业中心的城市+1宜居度。"/>
+        <filter val="有市民工作的浅水单元格+1生产力。工业时代后额外+1生产力。"/>
+        <filter val="有学院的城市+2食物，+15%人口增长速度。"/>
+        <filter val="在UI部分砍"/>
+        <filter val="在UI部分拉"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E48">
     <sortCondition ref="B2:B48"/>
   </sortState>

--- a/文档/城邦.xlsx
+++ b/文档/城邦.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="11520" windowHeight="9060"/>
+    <workbookView windowWidth="23040" windowHeight="9060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="205">
   <si>
     <t>名称</t>
   </si>
@@ -63,6 +63,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>建有港口的城市</t>
     </r>
     <r>
@@ -483,6 +490,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>陆地单位击杀文明或城邦单位获得大将军点数，海军单位击杀文明或城邦单位获得海军统帅点数，数值为敌方单位战斗力的25%（标准速度下）。</t>
     </r>
     <r>
@@ -614,6 +628,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>有学院的城市</t>
     </r>
     <r>
@@ -1122,10 +1143,10 @@
     <t>梵蒂冈城</t>
   </si>
   <si>
-    <t>当您激活伟人时，伟人向10格以内的城市传播400点您创立（或您的主流）宗教的宗教压力。</t>
-  </si>
-  <si>
-    <t>再想想</t>
+    <t>当您激活伟人时，伟人向10格（实际为6格）以内的城市传播400点您创立（或您的主流）宗教的宗教压力。</t>
+  </si>
+  <si>
+    <t>每件文学和美术巨作+2信仰。圣地提供+1大文、+1大艺点。</t>
   </si>
   <si>
     <t>没啥用就是了</t>
@@ -1135,6 +1156,21 @@
   </si>
   <si>
     <t>您的使徒在升级时可以选择任意类型的晋升，而不需要随机抽取。</t>
+  </si>
+  <si>
+    <r>
+      <t>使徒可清除城市25%的其他宗教。进入工业时代后，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>您的使徒在升级时可以选择任意类型的晋升，而不需要随机抽取。</t>
+    </r>
   </si>
   <si>
     <t>宗胜领域大神</t>
@@ -1181,21 +1217,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1693,137 +1715,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1833,16 +1855,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
@@ -2375,8 +2394,8 @@
   <sheetPr/>
   <dimension ref="A1:H48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G53" sqref="G53"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
@@ -2421,7 +2440,7 @@
       <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E2" s="1"/>
@@ -2903,7 +2922,7 @@
       </c>
     </row>
     <row r="26" ht="28.8" spans="1:8">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="4" t="s">
         <v>114</v>
       </c>
       <c r="B26" s="1" t="s">
@@ -2977,7 +2996,7 @@
       <c r="C29" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="D29" s="6" t="s">
         <v>130</v>
       </c>
       <c r="E29" s="1"/>
@@ -3136,7 +3155,7 @@
       </c>
     </row>
     <row r="37" ht="28.8" spans="1:8">
-      <c r="A37" s="6" t="s">
+      <c r="A37" s="5" t="s">
         <v>162</v>
       </c>
       <c r="B37" s="1" t="s">
@@ -3316,7 +3335,7 @@
       <c r="C46" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="D46" s="3" t="s">
+      <c r="D46" s="2" t="s">
         <v>195</v>
       </c>
       <c r="E46" s="1"/>
@@ -3324,7 +3343,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="47" ht="28.8" spans="1:8">
+    <row r="47" ht="43.2" spans="1:8">
       <c r="A47" s="1" t="s">
         <v>197</v>
       </c>
@@ -3334,12 +3353,12 @@
       <c r="C47" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>195</v>
+      <c r="D47" s="2" t="s">
+        <v>199</v>
       </c>
       <c r="E47" s="1"/>
       <c r="G47" s="3" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>83</v>
@@ -3347,20 +3366,20 @@
     </row>
     <row r="48" ht="28.8" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>176</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E48" s="1"/>
       <c r="G48" s="3" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>83</v>

--- a/文档/城邦.xlsx
+++ b/文档/城邦.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Admin\Documents\GitHub\Sistine_civ6mod\文档\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB4D9749-3316-40FC-8502-A809B410431F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9060"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="206">
   <si>
     <t>名称</t>
   </si>
@@ -615,7 +621,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Segoe UI Emoji"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>🐎</t>
     </r>
@@ -1205,19 +1211,17 @@
   </si>
   <si>
     <t>接下来表演无传教士洗穿半个大陆</t>
+  </si>
+  <si>
+    <t>不变</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1233,150 +1237,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1386,10 +1246,24 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Segoe UI Emoji"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1402,194 +1276,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1597,251 +1285,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1855,102 +1301,168 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <dxfs count="17">
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
         <color theme="1"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
         <color theme="1"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
         <color theme="1"/>
       </font>
       <border>
@@ -1961,7 +1473,7 @@
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
         <color theme="0"/>
       </font>
       <fill>
@@ -1989,154 +1501,40 @@
           <color theme="4"/>
         </bottom>
         <horizontal style="thin">
-          <color theme="4" tint="0.399975585192419"/>
+          <color theme="4" tint="0.39994506668294322"/>
         </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
       </border>
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
     <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
-      <tableStyleElement type="wholeTable" dxfId="6"/>
-      <tableStyleElement type="headerRow" dxfId="5"/>
-      <tableStyleElement type="totalRow" dxfId="4"/>
-      <tableStyleElement type="firstColumn" dxfId="3"/>
-      <tableStyleElement type="lastColumn" dxfId="2"/>
-      <tableStyleElement type="firstRowStripe" dxfId="1"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="0"/>
+      <tableStyleElement type="wholeTable" dxfId="16"/>
+      <tableStyleElement type="headerRow" dxfId="15"/>
+      <tableStyleElement type="totalRow" dxfId="14"/>
+      <tableStyleElement type="firstColumn" dxfId="13"/>
+      <tableStyleElement type="lastColumn" dxfId="12"/>
+      <tableStyleElement type="firstRowStripe" dxfId="11"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="10"/>
     </tableStyle>
     <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
-      <tableStyleElement type="headerRow" dxfId="16"/>
-      <tableStyleElement type="totalRow" dxfId="15"/>
-      <tableStyleElement type="firstRowStripe" dxfId="14"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="13"/>
-      <tableStyleElement type="firstSubtotalRow" dxfId="12"/>
-      <tableStyleElement type="secondSubtotalRow" dxfId="11"/>
-      <tableStyleElement type="firstRowSubheading" dxfId="10"/>
-      <tableStyleElement type="secondRowSubheading" dxfId="9"/>
-      <tableStyleElement type="pageFieldLabels" dxfId="8"/>
-      <tableStyleElement type="pageFieldValues" dxfId="7"/>
+      <tableStyleElement type="headerRow" dxfId="9"/>
+      <tableStyleElement type="totalRow" dxfId="8"/>
+      <tableStyleElement type="firstRowStripe" dxfId="7"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="6"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="5"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="4"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="3"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="2"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="1"/>
+      <tableStyleElement type="pageFieldValues" dxfId="0"/>
     </tableStyle>
   </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2386,28 +1784,29 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:H48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="24.3796296296296" customWidth="1"/>
-    <col min="3" max="4" width="38.8796296296296" customWidth="1"/>
-    <col min="5" max="5" width="16.6296296296296" customWidth="1"/>
+    <col min="1" max="1" width="24.375" customWidth="1"/>
+    <col min="3" max="4" width="38.875" customWidth="1"/>
+    <col min="5" max="5" width="16.625" customWidth="1"/>
     <col min="7" max="7" width="61.25" customWidth="1"/>
-    <col min="8" max="8" width="26.3796296296296" customWidth="1"/>
+    <col min="8" max="8" width="26.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2426,11 +1825,11 @@
       <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="28.8" spans="1:8">
+    <row r="2" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -2444,14 +1843,14 @@
         <v>10</v>
       </c>
       <c r="E2" s="1"/>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -2465,14 +1864,14 @@
         <v>15</v>
       </c>
       <c r="E3" s="1"/>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" ht="28.8" spans="1:7">
+    <row r="4" spans="1:8" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
@@ -2482,15 +1881,15 @@
       <c r="C4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E4" s="1"/>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>21</v>
       </c>
@@ -2500,18 +1899,18 @@
       <c r="C5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E5" s="1"/>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" ht="43.2" spans="1:7">
+    <row r="6" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>26</v>
       </c>
@@ -2525,11 +1924,11 @@
         <v>28</v>
       </c>
       <c r="E6" s="1"/>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="7" ht="28.8" spans="1:7">
+    <row r="7" spans="1:8" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>30</v>
       </c>
@@ -2539,15 +1938,15 @@
       <c r="C7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E7" s="1"/>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="8" ht="28.8" spans="1:8">
+    <row r="8" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>33</v>
       </c>
@@ -2557,18 +1956,18 @@
       <c r="C8" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E8" s="1"/>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H8" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="9" ht="28.8" spans="1:8">
+    <row r="9" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>38</v>
       </c>
@@ -2578,18 +1977,18 @@
       <c r="C9" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="1" t="s">
         <v>41</v>
       </c>
       <c r="E9" s="1"/>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="H9" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>44</v>
       </c>
@@ -2599,15 +1998,15 @@
       <c r="C10" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E10" s="1"/>
-      <c r="G10" s="3" t="s">
+      <c r="G10" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="11" ht="28.8" spans="1:8">
+    <row r="11" spans="1:8" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>47</v>
       </c>
@@ -2617,18 +2016,18 @@
       <c r="C11" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E11" s="1"/>
-      <c r="G11" s="3" t="s">
+      <c r="G11" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="H11" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="12" ht="28.8" spans="1:8">
+    <row r="12" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>51</v>
       </c>
@@ -2638,18 +2037,18 @@
       <c r="C12" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="1" t="s">
         <v>53</v>
       </c>
       <c r="E12" s="1"/>
-      <c r="G12" s="3" t="s">
+      <c r="G12" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="H12" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="13" ht="28.8" spans="1:7">
+    <row r="13" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>56</v>
       </c>
@@ -2659,38 +2058,38 @@
       <c r="C13" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="1" t="s">
         <v>58</v>
       </c>
       <c r="E13" s="1"/>
-      <c r="G13" s="3" t="s">
+      <c r="G13" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="14" ht="28.8" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="1" t="s">
         <v>61</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="G14" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="H14" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="15" ht="43.2" spans="1:8">
+    <row r="15" spans="1:8" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>66</v>
       </c>
@@ -2700,18 +2099,18 @@
       <c r="C15" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E15" s="1"/>
-      <c r="G15" s="3" t="s">
+      <c r="G15" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="H15" s="3" t="s">
+      <c r="H15" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="16" ht="72" spans="1:8">
+    <row r="16" spans="1:8" ht="54" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>70</v>
       </c>
@@ -2721,18 +2120,18 @@
       <c r="C16" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="1" t="s">
         <v>72</v>
       </c>
       <c r="E16" s="1"/>
-      <c r="G16" s="3" t="s">
+      <c r="G16" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="H16" s="3" t="s">
+      <c r="H16" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="17" ht="28.8" spans="1:8">
+    <row r="17" spans="1:8" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>75</v>
       </c>
@@ -2742,18 +2141,18 @@
       <c r="C17" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E17" s="1"/>
-      <c r="G17" s="3" t="s">
+      <c r="G17" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="H17" s="3" t="s">
+      <c r="H17" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="18" ht="28.8" spans="1:8">
+    <row r="18" spans="1:8" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>80</v>
       </c>
@@ -2763,18 +2162,18 @@
       <c r="C18" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E18" s="1"/>
-      <c r="G18" s="3" t="s">
+      <c r="G18" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="H18" s="3" t="s">
+      <c r="H18" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="19" ht="28.8" spans="1:8">
+    <row r="19" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>84</v>
       </c>
@@ -2784,18 +2183,18 @@
       <c r="C19" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="1" t="s">
         <v>86</v>
       </c>
       <c r="E19" s="1"/>
-      <c r="G19" s="3" t="s">
+      <c r="G19" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="H19" s="3" t="s">
+      <c r="H19" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="20" ht="28.8" spans="1:8">
+    <row r="20" spans="1:8" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>88</v>
       </c>
@@ -2805,18 +2204,18 @@
       <c r="C20" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E20" s="1"/>
-      <c r="G20" s="3" t="s">
+      <c r="G20" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="H20" s="3" t="s">
+      <c r="H20" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="21" ht="28.8" spans="1:8">
+    <row r="21" spans="1:8" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>91</v>
       </c>
@@ -2826,18 +2225,18 @@
       <c r="C21" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E21" s="1"/>
-      <c r="G21" s="3" t="s">
+      <c r="G21" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="H21" s="3" t="s">
+      <c r="H21" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="22" ht="28.8" spans="1:8">
+    <row r="22" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>94</v>
       </c>
@@ -2847,18 +2246,18 @@
       <c r="C22" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="1" t="s">
         <v>96</v>
       </c>
       <c r="E22" s="1"/>
-      <c r="G22" s="3" t="s">
+      <c r="G22" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="H22" s="3" t="s">
+      <c r="H22" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>99</v>
       </c>
@@ -2868,18 +2267,18 @@
       <c r="C23" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="1" t="s">
         <v>101</v>
       </c>
       <c r="E23" s="1"/>
-      <c r="G23" s="3" t="s">
+      <c r="G23" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="H23" s="3" t="s">
+      <c r="H23" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="24" ht="28.8" spans="1:8">
+    <row r="24" spans="1:8" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
         <v>104</v>
       </c>
@@ -2889,18 +2288,18 @@
       <c r="C24" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E24" s="1"/>
-      <c r="G24" s="3" t="s">
+      <c r="G24" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="H24" s="3" t="s">
+      <c r="H24" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="25" ht="28.8" spans="1:8">
+    <row r="25" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
         <v>108</v>
       </c>
@@ -2910,19 +2309,19 @@
       <c r="C25" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="1" t="s">
         <v>111</v>
       </c>
       <c r="E25" s="1"/>
-      <c r="G25" s="3" t="s">
+      <c r="G25" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="H25" s="3" t="s">
+      <c r="H25" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="26" ht="28.8" spans="1:8">
-      <c r="A26" s="4" t="s">
+    <row r="26" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="A26" s="3" t="s">
         <v>114</v>
       </c>
       <c r="B26" s="1" t="s">
@@ -2931,18 +2330,18 @@
       <c r="C26" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D26" s="1" t="s">
         <v>116</v>
       </c>
       <c r="E26" s="1"/>
-      <c r="G26" s="3" t="s">
+      <c r="G26" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="H26" s="3" t="s">
+      <c r="H26" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
         <v>119</v>
       </c>
@@ -2952,18 +2351,18 @@
       <c r="C27" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D27" s="1" t="s">
-        <v>120</v>
+      <c r="D27" s="5" t="s">
+        <v>205</v>
       </c>
       <c r="E27" s="1"/>
-      <c r="G27" s="3" t="s">
+      <c r="G27" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="H27" s="3" t="s">
+      <c r="H27" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="28" ht="28.8" spans="1:8">
+    <row r="28" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
         <v>122</v>
       </c>
@@ -2973,21 +2372,21 @@
       <c r="C28" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D28" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="E28" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="G28" s="3" t="s">
+      <c r="G28" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="H28" s="3" t="s">
+      <c r="H28" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="3" t="s">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A29" s="1" t="s">
         <v>128</v>
       </c>
       <c r="B29" s="1" t="s">
@@ -2996,18 +2395,18 @@
       <c r="C29" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="D29" s="4" t="s">
         <v>130</v>
       </c>
       <c r="E29" s="1"/>
-      <c r="G29" s="3" t="s">
+      <c r="G29" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="H29" s="3" t="s">
+      <c r="H29" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="30" ht="28.8" spans="1:8">
+    <row r="30" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
         <v>132</v>
       </c>
@@ -3017,18 +2416,18 @@
       <c r="C30" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D30" s="1" t="s">
         <v>134</v>
       </c>
       <c r="E30" s="1"/>
-      <c r="G30" s="3" t="s">
+      <c r="G30" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="H30" s="3" t="s">
+      <c r="H30" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
         <v>137</v>
       </c>
@@ -3038,18 +2437,18 @@
       <c r="C31" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="D31" s="1" t="s">
-        <v>138</v>
+      <c r="D31" s="5" t="s">
+        <v>205</v>
       </c>
       <c r="E31" s="1"/>
-      <c r="G31" s="3" t="s">
+      <c r="G31" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="H31" s="3" t="s">
+      <c r="H31" s="1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="32" ht="28.8" spans="1:8">
+    <row r="32" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
         <v>141</v>
       </c>
@@ -3059,18 +2458,18 @@
       <c r="C32" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="D32" s="1" t="s">
         <v>143</v>
       </c>
       <c r="E32" s="1"/>
-      <c r="G32" s="3" t="s">
+      <c r="G32" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="H32" s="3" t="s">
+      <c r="H32" s="1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
         <v>146</v>
       </c>
@@ -3080,18 +2479,18 @@
       <c r="C33" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="D33" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E33" s="1"/>
-      <c r="G33" s="3" t="s">
+      <c r="G33" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="H33" s="3" t="s">
+      <c r="H33" s="1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
         <v>151</v>
       </c>
@@ -3101,18 +2500,18 @@
       <c r="C34" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="D34" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E34" s="1"/>
-      <c r="G34" s="3" t="s">
+      <c r="G34" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="H34" s="3" t="s">
+      <c r="H34" s="1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
         <v>154</v>
       </c>
@@ -3122,18 +2521,18 @@
       <c r="C35" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="D35" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E35" s="1"/>
-      <c r="G35" s="3" t="s">
+      <c r="G35" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="H35" s="3" t="s">
+      <c r="H35" s="1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="36" ht="28.8" spans="1:8">
+    <row r="36" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
         <v>157</v>
       </c>
@@ -3143,19 +2542,19 @@
       <c r="C36" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="D36" s="1" t="s">
         <v>159</v>
       </c>
       <c r="E36" s="1"/>
-      <c r="G36" s="3" t="s">
+      <c r="G36" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="H36" s="3" t="s">
+      <c r="H36" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="37" ht="28.8" spans="1:8">
-      <c r="A37" s="5" t="s">
+    <row r="37" spans="1:8" ht="27" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="3" t="s">
         <v>162</v>
       </c>
       <c r="B37" s="1" t="s">
@@ -3164,18 +2563,18 @@
       <c r="C37" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="D37" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E37" s="1"/>
-      <c r="G37" s="3" t="s">
+      <c r="G37" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="H37" s="3" t="s">
+      <c r="H37" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
         <v>164</v>
       </c>
@@ -3189,11 +2588,11 @@
         <v>166</v>
       </c>
       <c r="E38" s="1"/>
-      <c r="G38" s="3" t="s">
+      <c r="G38" s="1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
         <v>168</v>
       </c>
@@ -3203,18 +2602,18 @@
       <c r="C39" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="D39" s="1" t="s">
         <v>101</v>
       </c>
       <c r="E39" s="1"/>
-      <c r="G39" s="3" t="s">
+      <c r="G39" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="H39" s="3" t="s">
+      <c r="H39" s="1" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="40" ht="28.8" spans="1:7">
+    <row r="40" spans="1:8" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
         <v>172</v>
       </c>
@@ -3224,15 +2623,15 @@
       <c r="C40" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="D40" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E40" s="1"/>
-      <c r="G40" s="3" t="s">
+      <c r="G40" s="1" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
         <v>175</v>
       </c>
@@ -3242,15 +2641,15 @@
       <c r="C41" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="D41" s="3" t="s">
+      <c r="D41" s="1" t="s">
         <v>178</v>
       </c>
       <c r="E41" s="1"/>
-      <c r="G41" s="3" t="s">
+      <c r="G41" s="1" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="42" ht="28.8" spans="1:8">
+    <row r="42" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
         <v>180</v>
       </c>
@@ -3264,14 +2663,14 @@
         <v>182</v>
       </c>
       <c r="E42" s="1"/>
-      <c r="G42" s="3" t="s">
+      <c r="G42" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="H42" s="3" t="s">
+      <c r="H42" s="1" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="43" ht="28.8" spans="1:7">
+    <row r="43" spans="1:8" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
         <v>185</v>
       </c>
@@ -3281,15 +2680,15 @@
       <c r="C43" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="D43" s="3" t="s">
+      <c r="D43" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E43" s="1"/>
-      <c r="G43" s="3" t="s">
+      <c r="G43" s="1" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
         <v>188</v>
       </c>
@@ -3299,15 +2698,15 @@
       <c r="C44" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="D44" s="3" t="s">
+      <c r="D44" s="1" t="s">
         <v>178</v>
       </c>
       <c r="E44" s="1"/>
-      <c r="G44" s="3" t="s">
+      <c r="G44" s="1" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
         <v>191</v>
       </c>
@@ -3317,15 +2716,15 @@
       <c r="C45" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="D45" s="1" t="s">
         <v>178</v>
       </c>
       <c r="E45" s="1"/>
-      <c r="G45" s="3" t="s">
+      <c r="G45" s="1" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="46" ht="43.2" spans="1:7">
+    <row r="46" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
         <v>193</v>
       </c>
@@ -3339,11 +2738,11 @@
         <v>195</v>
       </c>
       <c r="E46" s="1"/>
-      <c r="G46" s="3" t="s">
+      <c r="G46" s="1" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="47" ht="43.2" spans="1:8">
+    <row r="47" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
         <v>197</v>
       </c>
@@ -3357,14 +2756,14 @@
         <v>199</v>
       </c>
       <c r="E47" s="1"/>
-      <c r="G47" s="3" t="s">
+      <c r="G47" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="H47" s="3" t="s">
+      <c r="H47" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="48" ht="28.8" spans="1:8">
+    <row r="48" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
         <v>201</v>
       </c>
@@ -3374,26 +2773,55 @@
       <c r="C48" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="D48" s="3" t="s">
+      <c r="D48" s="1" t="s">
         <v>203</v>
       </c>
       <c r="E48" s="1"/>
-      <c r="G48" s="3" t="s">
+      <c r="G48" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="H48" s="3" t="s">
+      <c r="H48" s="1" t="s">
         <v>83</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H48">
-    <extLst/>
+  <autoFilter ref="A1:H48" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="（所有？）贸易路线从终点处的每个奢侈资源获得+2金币。"/>
+        <filter val="+2商路容量。"/>
+        <filter val="当您首次使用单位转变一座城市的主流宗教时，从这座城市的每个人口获得30科技值。"/>
+        <filter val="国际贸易路线从起点城市的每个区域获得+2信仰。"/>
+        <filter val="获得肉桂和丁香两种奢侈资源。这两种资源无法以其他方式获得，每个提供4宜居度。"/>
+        <filter val="建有港口的城市浅水单元格+1生产力。工业时代后额外+1生产力。"/>
+        <filter val="近战（不含反骑兵）的攻击对城市城墙造成全额伤害。"/>
+        <filter val="陆地单位击杀文明或城邦单位获得大将军点数，海军单位击杀文明或城邦单位获得海军统帅点数，数值为敌方单位战斗力的25%（标准速度下）。每回合提供+2大将军点数。"/>
+        <filter val="每个军营建筑使陆地战斗单位和支援单位的金币购买价格降低15%。"/>
+        <filter val="每件文学和美术巨作+2信仰。圣地提供+1大文、+1大艺点。"/>
+        <filter val="每种改良的资源类型为建有工业区的城市提供+1生产力。研究工业化后，该加成变为+2生产力。"/>
+        <filter val="您的城市从本城有贸易路线通往的每个外国文明获得+3生产力。"/>
+        <filter val="您的城市建造建筑和奇观+15%生产力。"/>
+        <filter val="您的城市在进行项目时+30%生产力。"/>
+        <filter val="您的轻重骑兵在丘陵上+5战斗力。"/>
+        <filter val="您可以使用信仰（产能和金钱？）购买特色单位尼昂战士。"/>
+        <filter val="您有圣地的城市（含圣城，因为我们没法去掉圣城）+100%宗教压力。"/>
+        <filter val="您与海岸相邻的城区提供+1文化。"/>
+        <filter val="您在外国城市的贸易站为您经过或前往所在城市的贸易路线提供+3金币。"/>
+        <filter val="起点城市的每个专业化区域为您通往城邦的贸易路线提供+2文化。"/>
+        <filter val="使徒可清除城市25%的其他宗教。进入工业时代后，您的使徒在升级时可以选择任意类型的晋升，而不需要随机抽取。"/>
+        <filter val="一条商路每长2单元格，便使您获得+1金币。"/>
+        <filter val="有商业中心的城市+1宜居度，若有银行再+1宜居度。"/>
+        <filter val="有学院的城市农田+1食物，+15%人口增长速度。"/>
+        <filter val="在UI部分砍"/>
+        <filter val="在UI部分拉"/>
+      </filters>
+    </filterColumn>
   </autoFilter>
-  <sortState ref="A2:E48">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E48">
     <sortCondition ref="B2:B48"/>
   </sortState>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/文档/城邦.xlsx
+++ b/文档/城邦.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Admin\Documents\GitHub\Sistine_civ6mod\文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB4D9749-3316-40FC-8502-A809B410431F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5FC1513-D701-4578-9B71-DEE7D39DB979}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1794,7 +1794,7 @@
   <dimension ref="A1:H48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/文档/城邦.xlsx
+++ b/文档/城邦.xlsx
@@ -1,22 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Admin\Documents\GitHub\Sistine_civ6mod\文档\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5FC1513-D701-4578-9B71-DEE7D39DB979}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="23040" windowHeight="9060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$48</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$49</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="207">
   <si>
     <t>名称</t>
   </si>
@@ -306,6 +300,15 @@
     <t>再加一点点文化？</t>
   </si>
   <si>
+    <t>加的夫</t>
+  </si>
+  <si>
+    <t>港口建筑提供+2电力。</t>
+  </si>
+  <si>
+    <t>港口建筑提供+2电力，+2生产力。</t>
+  </si>
+  <si>
     <t>阿卡德</t>
   </si>
   <si>
@@ -621,7 +624,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Segoe UI Emoji"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>🐎</t>
     </r>
@@ -708,6 +711,19 @@
   </si>
   <si>
     <r>
+      <t>通往外国的贸易路线</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>从终点处的每个奢侈资源获得</t>
+    </r>
+    <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
@@ -715,17 +731,17 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>（所有？）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>贸易路线从终点处的每个奢侈资源获得+2金币。</t>
+      <t>+3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>金币。</t>
     </r>
   </si>
   <si>
@@ -795,13 +811,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>一条商路每长</t>
     </r>
     <r>
@@ -812,7 +821,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>2单元格</t>
+      <t>3单元格</t>
     </r>
     <r>
       <rPr>
@@ -824,6 +833,16 @@
       </rPr>
       <t>，便使您获得+1金币。</t>
     </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（观察数值是否会正常舍入）</t>
+    </r>
   </si>
   <si>
     <t>要么2要么4，没法填别的数值了</t>
@@ -1164,21 +1183,6 @@
     <t>您的使徒在升级时可以选择任意类型的晋升，而不需要随机抽取。</t>
   </si>
   <si>
-    <r>
-      <t>使徒可清除城市25%的其他宗教。进入工业时代后，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>您的使徒在升级时可以选择任意类型的晋升，而不需要随机抽取。</t>
-    </r>
-  </si>
-  <si>
     <t>宗胜领域大神</t>
   </si>
   <si>
@@ -1211,17 +1215,19 @@
   </si>
   <si>
     <t>接下来表演无传教士洗穿半个大陆</t>
-  </si>
-  <si>
-    <t>不变</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1245,25 +1251,162 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Segoe UI Emoji"/>
-      <family val="2"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI Emoji"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1276,8 +1419,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1285,13 +1614,255 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1301,168 +1872,111 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" quotePrefix="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <dxfs count="17">
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color theme="1"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
+        <b val="1"/>
         <color theme="1"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
         <color theme="1"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
         <color theme="1"/>
       </font>
       <border>
@@ -1473,7 +1987,7 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
         <color theme="0"/>
       </font>
       <fill>
@@ -1501,40 +2015,154 @@
           <color theme="4"/>
         </bottom>
         <horizontal style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
+          <color theme="4" tint="0.399975585192419"/>
         </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
       </border>
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
     <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
-      <tableStyleElement type="wholeTable" dxfId="16"/>
-      <tableStyleElement type="headerRow" dxfId="15"/>
-      <tableStyleElement type="totalRow" dxfId="14"/>
-      <tableStyleElement type="firstColumn" dxfId="13"/>
-      <tableStyleElement type="lastColumn" dxfId="12"/>
-      <tableStyleElement type="firstRowStripe" dxfId="11"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="10"/>
+      <tableStyleElement type="wholeTable" dxfId="6"/>
+      <tableStyleElement type="headerRow" dxfId="5"/>
+      <tableStyleElement type="totalRow" dxfId="4"/>
+      <tableStyleElement type="firstColumn" dxfId="3"/>
+      <tableStyleElement type="lastColumn" dxfId="2"/>
+      <tableStyleElement type="firstRowStripe" dxfId="1"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="0"/>
     </tableStyle>
     <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
-      <tableStyleElement type="headerRow" dxfId="9"/>
-      <tableStyleElement type="totalRow" dxfId="8"/>
-      <tableStyleElement type="firstRowStripe" dxfId="7"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="6"/>
-      <tableStyleElement type="firstSubtotalRow" dxfId="5"/>
-      <tableStyleElement type="secondSubtotalRow" dxfId="4"/>
-      <tableStyleElement type="firstRowSubheading" dxfId="3"/>
-      <tableStyleElement type="secondRowSubheading" dxfId="2"/>
-      <tableStyleElement type="pageFieldLabels" dxfId="1"/>
-      <tableStyleElement type="pageFieldValues" dxfId="0"/>
+      <tableStyleElement type="headerRow" dxfId="16"/>
+      <tableStyleElement type="totalRow" dxfId="15"/>
+      <tableStyleElement type="firstRowStripe" dxfId="14"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="13"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="12"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="11"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="10"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="9"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="8"/>
+      <tableStyleElement type="pageFieldValues" dxfId="7"/>
     </tableStyle>
   </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1784,29 +2412,28 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:H48"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="24.375" customWidth="1"/>
-    <col min="3" max="4" width="38.875" customWidth="1"/>
-    <col min="5" max="5" width="16.625" customWidth="1"/>
+    <col min="1" max="1" width="24.3796296296296" customWidth="1"/>
+    <col min="3" max="4" width="38.8796296296296" customWidth="1"/>
+    <col min="5" max="5" width="16.6296296296296" customWidth="1"/>
     <col min="7" max="7" width="61.25" customWidth="1"/>
-    <col min="8" max="8" width="26.375" customWidth="1"/>
+    <col min="8" max="8" width="26.3796296296296" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1829,7 +2456,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+    <row r="2" ht="28.8" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -1839,7 +2466,7 @@
       <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E2" s="1"/>
@@ -1850,7 +2477,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -1860,7 +2487,7 @@
       <c r="C3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E3" s="1"/>
@@ -1871,7 +2498,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="4" ht="28.8" spans="1:7">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
@@ -1889,7 +2516,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
         <v>21</v>
       </c>
@@ -1899,7 +2526,7 @@
       <c r="C5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="4" t="s">
         <v>23</v>
       </c>
       <c r="E5" s="1"/>
@@ -1910,7 +2537,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="6" ht="43.2" spans="1:7">
       <c r="A6" s="1" t="s">
         <v>26</v>
       </c>
@@ -1920,7 +2547,7 @@
       <c r="C6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="4" t="s">
         <v>28</v>
       </c>
       <c r="E6" s="1"/>
@@ -1928,7 +2555,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="7" ht="28.8" spans="1:7">
       <c r="A7" s="1" t="s">
         <v>30</v>
       </c>
@@ -1946,7 +2573,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+    <row r="8" ht="28.8" spans="1:8">
       <c r="A8" s="1" t="s">
         <v>33</v>
       </c>
@@ -1956,7 +2583,7 @@
       <c r="C8" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="4" t="s">
         <v>35</v>
       </c>
       <c r="E8" s="1"/>
@@ -1967,51 +2594,50 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" ht="28.8" spans="1:8">
+      <c r="A10" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E9" s="1"/>
-      <c r="G9" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="1" t="s">
+      <c r="D10" s="4" t="s">
         <v>44</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="E10" s="1"/>
       <c r="G10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>48</v>
@@ -2023,204 +2649,201 @@
       <c r="G11" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H11" s="1" t="s">
+    </row>
+    <row r="12" ht="28.8" spans="1:8">
+      <c r="A12" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" ht="27" x14ac:dyDescent="0.15">
-      <c r="A12" s="1" t="s">
+      <c r="B12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="D12" s="1" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="E12" s="1"/>
       <c r="G12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" ht="28.8" spans="1:8">
+      <c r="A13" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="B13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" ht="27" x14ac:dyDescent="0.15">
-      <c r="A13" s="1" t="s">
+      <c r="D13" s="4" t="s">
         <v>56</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="E13" s="1"/>
       <c r="G13" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" ht="28.8" spans="1:7">
+      <c r="A14" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A14" s="1" t="s">
+      <c r="B14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" s="1" t="s">
+      <c r="D14" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="E14" s="1"/>
+      <c r="G14" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E14" s="1" t="s">
+    </row>
+    <row r="15" ht="28.8" spans="1:8">
+      <c r="A15" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="B15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="D15" s="3" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" ht="27" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" s="1" t="s">
+      <c r="G15" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="H15" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" ht="43.2" spans="1:8">
+      <c r="A16" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="E15" s="1"/>
-      <c r="G15" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="54" x14ac:dyDescent="0.15">
-      <c r="A16" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>72</v>
       </c>
       <c r="E16" s="1"/>
       <c r="G16" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" ht="72" spans="1:8">
+      <c r="A17" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="B17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" ht="27" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="1" t="s">
+      <c r="D17" s="4" t="s">
         <v>75</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="E17" s="1"/>
       <c r="G17" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" ht="28.8" spans="1:8">
+      <c r="A18" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="B18" s="1" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" ht="27" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>81</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E18" s="1"/>
       <c r="G18" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H18" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="H18" s="1" t="s">
+    </row>
+    <row r="19" ht="28.8" spans="1:8">
+      <c r="A19" s="1" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" ht="27" x14ac:dyDescent="0.15">
-      <c r="A19" s="1" t="s">
+      <c r="B19" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>85</v>
-      </c>
       <c r="D19" s="1" t="s">
-        <v>86</v>
+        <v>19</v>
       </c>
       <c r="E19" s="1"/>
       <c r="G19" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="20" ht="28.8" spans="1:8">
+      <c r="A20" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="H19" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="27" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="1" t="s">
+      <c r="B20" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C20" s="1" t="s">
+      <c r="D20" s="4" t="s">
         <v>89</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="E20" s="1"/>
       <c r="G20" s="1" t="s">
         <v>90</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="27" hidden="1" x14ac:dyDescent="0.15">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="21" ht="28.8" spans="1:8">
       <c r="A21" s="1" t="s">
         <v>91</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>92</v>
@@ -2233,290 +2856,290 @@
         <v>93</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="22" ht="28.8" spans="1:8">
       <c r="A22" s="1" t="s">
         <v>94</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>95</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>96</v>
+        <v>19</v>
       </c>
       <c r="E22" s="1"/>
       <c r="G22" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="23" ht="28.8" spans="1:8">
+      <c r="A23" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="H22" s="1" t="s">
+      <c r="B23" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A23" s="1" t="s">
+      <c r="D23" s="4" t="s">
         <v>99</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>101</v>
       </c>
       <c r="E23" s="1"/>
       <c r="G23" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="H23" s="1" t="s">
+      <c r="B24" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" ht="27" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="1" t="s">
+      <c r="D24" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="E24" s="1"/>
       <c r="G24" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="H24" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="H24" s="1" t="s">
+    </row>
+    <row r="25" ht="28.8" spans="1:8">
+      <c r="A25" s="1" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" ht="27" x14ac:dyDescent="0.15">
-      <c r="A25" s="1" t="s">
+      <c r="B25" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>110</v>
-      </c>
       <c r="D25" s="1" t="s">
-        <v>111</v>
+        <v>19</v>
       </c>
       <c r="E25" s="1"/>
       <c r="G25" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="26" ht="28.8" spans="1:8">
+      <c r="A26" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="H25" s="1" t="s">
+      <c r="C26" s="1" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" ht="27" x14ac:dyDescent="0.15">
-      <c r="A26" s="3" t="s">
+      <c r="D26" s="5" t="s">
         <v>114</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>116</v>
       </c>
       <c r="E26" s="1"/>
       <c r="G26" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="27" ht="28.8" spans="1:8">
+      <c r="A27" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="H26" s="1" t="s">
+      <c r="B27" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="1" t="s">
+      <c r="D27" s="4" t="s">
         <v>119</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>205</v>
       </c>
       <c r="E27" s="1"/>
       <c r="G27" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="H27" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="H27" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
         <v>122</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E28" s="1"/>
+      <c r="G28" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="H28" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="29" ht="28.8" spans="1:8">
+      <c r="A29" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="G28" s="1" t="s">
+      <c r="B29" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="H28" s="1" t="s">
+      <c r="D29" s="7" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A29" s="1" t="s">
+      <c r="E29" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C29" s="1" t="s">
+      <c r="G29" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="H29" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="E29" s="1"/>
-      <c r="G29" s="1" t="s">
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="H29" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="27" x14ac:dyDescent="0.15">
-      <c r="A30" s="1" t="s">
+      <c r="B30" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C30" s="1" t="s">
+      <c r="D30" s="9" t="s">
         <v>133</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>134</v>
       </c>
       <c r="E30" s="1"/>
       <c r="G30" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="31" ht="28.8" spans="1:8">
+      <c r="A31" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="H30" s="1" t="s">
+      <c r="B31" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="1" t="s">
+      <c r="D31" s="4" t="s">
         <v>137</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>205</v>
       </c>
       <c r="E31" s="1"/>
       <c r="G31" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="H31" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="H31" s="1" t="s">
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="1" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" ht="27" x14ac:dyDescent="0.15">
-      <c r="A32" s="1" t="s">
+      <c r="B32" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>143</v>
+      <c r="D32" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="E32" s="1"/>
       <c r="G32" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="33" ht="28.8" spans="1:8">
+      <c r="A33" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="H32" s="1" t="s">
+      <c r="B33" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="1" t="s">
+      <c r="D33" s="4" t="s">
         <v>146</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="E33" s="1"/>
       <c r="G33" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="H33" s="1" t="s">
+      <c r="B34" s="1" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="1" t="s">
+      <c r="C34" s="1" t="s">
         <v>151</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>152</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E34" s="1"/>
       <c r="G34" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="H34" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="H34" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
         <v>154</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>155</v>
@@ -2529,299 +3152,291 @@
         <v>156</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
         <v>157</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>158</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>159</v>
+        <v>19</v>
       </c>
       <c r="E36" s="1"/>
       <c r="G36" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="37" ht="28.8" spans="1:8">
+      <c r="A37" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="H36" s="1" t="s">
+      <c r="B37" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" ht="27" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="3" t="s">
+      <c r="D37" s="4" t="s">
         <v>162</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="E37" s="1"/>
       <c r="G37" s="1" t="s">
-        <v>83</v>
+        <v>163</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A38" s="1" t="s">
         <v>164</v>
       </c>
+    </row>
+    <row r="38" ht="28.8" spans="1:8">
+      <c r="A38" s="4" t="s">
+        <v>165</v>
+      </c>
       <c r="B38" s="1" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>166</v>
+        <v>19</v>
       </c>
       <c r="E38" s="1"/>
       <c r="G38" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="1" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A39" s="1" t="s">
+      <c r="B39" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="C39" s="1" t="s">
+      <c r="D39" s="4" t="s">
         <v>169</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>101</v>
       </c>
       <c r="E39" s="1"/>
       <c r="G39" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="H39" s="1" t="s">
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="1" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" ht="27" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="1" t="s">
+      <c r="B40" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>173</v>
-      </c>
       <c r="D40" s="1" t="s">
-        <v>19</v>
+        <v>104</v>
       </c>
       <c r="E40" s="1"/>
       <c r="G40" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="H40" s="1" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="41" ht="28.8" spans="1:7">
       <c r="A41" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B41" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="C41" s="1" t="s">
-        <v>177</v>
-      </c>
       <c r="D41" s="1" t="s">
-        <v>178</v>
+        <v>19</v>
       </c>
       <c r="E41" s="1"/>
       <c r="G41" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" ht="27" x14ac:dyDescent="0.15">
-      <c r="A42" s="1" t="s">
+      <c r="C42" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="C42" s="1" t="s">
+      <c r="D42" s="1" t="s">
         <v>181</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>182</v>
       </c>
       <c r="E42" s="1"/>
       <c r="G42" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="43" ht="28.8" spans="1:8">
+      <c r="A43" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="H42" s="1" t="s">
+      <c r="B43" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" ht="27" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="1" t="s">
+      <c r="D43" s="3" t="s">
         <v>185</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="E43" s="1"/>
       <c r="G43" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="H43" s="1" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="44" ht="28.8" spans="1:7">
       <c r="A44" s="1" t="s">
         <v>188</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>189</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>178</v>
+        <v>19</v>
       </c>
       <c r="E44" s="1"/>
       <c r="G44" s="1" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
         <v>191</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>192</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="E45" s="1"/>
       <c r="G45" s="1" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="D46" s="2" t="s">
         <v>195</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>181</v>
       </c>
       <c r="E46" s="1"/>
       <c r="G46" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="47" ht="43.2" spans="1:7">
+      <c r="A47" s="1" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A47" s="1" t="s">
+      <c r="B47" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="B47" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="C47" s="1" t="s">
+      <c r="D47" s="3" t="s">
         <v>198</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>199</v>
       </c>
       <c r="E47" s="1"/>
       <c r="G47" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="48" ht="28.8" spans="1:8">
+      <c r="A48" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="H47" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" ht="27" x14ac:dyDescent="0.15">
-      <c r="A48" s="1" t="s">
+      <c r="B48" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="B48" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>203</v>
+      <c r="D48" s="8" t="s">
+        <v>19</v>
       </c>
       <c r="E48" s="1"/>
       <c r="G48" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="49" ht="28.8" spans="1:8">
+      <c r="A49" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="H48" s="1" t="s">
-        <v>83</v>
+      <c r="D49" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="E49" s="1"/>
+      <c r="G49" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H48" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="（所有？）贸易路线从终点处的每个奢侈资源获得+2金币。"/>
-        <filter val="+2商路容量。"/>
-        <filter val="当您首次使用单位转变一座城市的主流宗教时，从这座城市的每个人口获得30科技值。"/>
-        <filter val="国际贸易路线从起点城市的每个区域获得+2信仰。"/>
-        <filter val="获得肉桂和丁香两种奢侈资源。这两种资源无法以其他方式获得，每个提供4宜居度。"/>
-        <filter val="建有港口的城市浅水单元格+1生产力。工业时代后额外+1生产力。"/>
-        <filter val="近战（不含反骑兵）的攻击对城市城墙造成全额伤害。"/>
-        <filter val="陆地单位击杀文明或城邦单位获得大将军点数，海军单位击杀文明或城邦单位获得海军统帅点数，数值为敌方单位战斗力的25%（标准速度下）。每回合提供+2大将军点数。"/>
-        <filter val="每个军营建筑使陆地战斗单位和支援单位的金币购买价格降低15%。"/>
-        <filter val="每件文学和美术巨作+2信仰。圣地提供+1大文、+1大艺点。"/>
-        <filter val="每种改良的资源类型为建有工业区的城市提供+1生产力。研究工业化后，该加成变为+2生产力。"/>
-        <filter val="您的城市从本城有贸易路线通往的每个外国文明获得+3生产力。"/>
-        <filter val="您的城市建造建筑和奇观+15%生产力。"/>
-        <filter val="您的城市在进行项目时+30%生产力。"/>
-        <filter val="您的轻重骑兵在丘陵上+5战斗力。"/>
-        <filter val="您可以使用信仰（产能和金钱？）购买特色单位尼昂战士。"/>
-        <filter val="您有圣地的城市（含圣城，因为我们没法去掉圣城）+100%宗教压力。"/>
-        <filter val="您与海岸相邻的城区提供+1文化。"/>
-        <filter val="您在外国城市的贸易站为您经过或前往所在城市的贸易路线提供+3金币。"/>
-        <filter val="起点城市的每个专业化区域为您通往城邦的贸易路线提供+2文化。"/>
-        <filter val="使徒可清除城市25%的其他宗教。进入工业时代后，您的使徒在升级时可以选择任意类型的晋升，而不需要随机抽取。"/>
-        <filter val="一条商路每长2单元格，便使您获得+1金币。"/>
-        <filter val="有商业中心的城市+1宜居度，若有银行再+1宜居度。"/>
-        <filter val="有学院的城市农田+1食物，+15%人口增长速度。"/>
-        <filter val="在UI部分砍"/>
-        <filter val="在UI部分拉"/>
-      </filters>
-    </filterColumn>
+  <autoFilter ref="A1:H49">
+    <extLst/>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E48">
+  <sortState ref="A2:E48">
     <sortCondition ref="B2:B48"/>
   </sortState>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/文档/城邦.xlsx
+++ b/文档/城邦.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Admin\Documents\GitHub\Sistine_civ6mod\文档\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D81C1DB-6990-4774-9584-63FE4FB3A406}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9060"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -624,7 +630,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Segoe UI Emoji"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>🐎</t>
     </r>
@@ -1220,14 +1226,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1256,357 +1256,27 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <color theme="1"/>
+      <name val="Segoe UI Emoji"/>
+      <family val="2"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Segoe UI Emoji"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1614,255 +1284,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1872,111 +1300,180 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <dxfs count="17">
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
         <color theme="1"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
         <color theme="1"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
         <color theme="1"/>
       </font>
       <border>
@@ -1987,7 +1484,7 @@
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
         <color theme="0"/>
       </font>
       <fill>
@@ -2015,154 +1512,40 @@
           <color theme="4"/>
         </bottom>
         <horizontal style="thin">
-          <color theme="4" tint="0.399975585192419"/>
+          <color theme="4" tint="0.39994506668294322"/>
         </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
       </border>
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
     <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
-      <tableStyleElement type="wholeTable" dxfId="6"/>
-      <tableStyleElement type="headerRow" dxfId="5"/>
-      <tableStyleElement type="totalRow" dxfId="4"/>
-      <tableStyleElement type="firstColumn" dxfId="3"/>
-      <tableStyleElement type="lastColumn" dxfId="2"/>
-      <tableStyleElement type="firstRowStripe" dxfId="1"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="0"/>
+      <tableStyleElement type="wholeTable" dxfId="16"/>
+      <tableStyleElement type="headerRow" dxfId="15"/>
+      <tableStyleElement type="totalRow" dxfId="14"/>
+      <tableStyleElement type="firstColumn" dxfId="13"/>
+      <tableStyleElement type="lastColumn" dxfId="12"/>
+      <tableStyleElement type="firstRowStripe" dxfId="11"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="10"/>
     </tableStyle>
     <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
-      <tableStyleElement type="headerRow" dxfId="16"/>
-      <tableStyleElement type="totalRow" dxfId="15"/>
-      <tableStyleElement type="firstRowStripe" dxfId="14"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="13"/>
-      <tableStyleElement type="firstSubtotalRow" dxfId="12"/>
-      <tableStyleElement type="secondSubtotalRow" dxfId="11"/>
-      <tableStyleElement type="firstRowSubheading" dxfId="10"/>
-      <tableStyleElement type="secondRowSubheading" dxfId="9"/>
-      <tableStyleElement type="pageFieldLabels" dxfId="8"/>
-      <tableStyleElement type="pageFieldValues" dxfId="7"/>
+      <tableStyleElement type="headerRow" dxfId="9"/>
+      <tableStyleElement type="totalRow" dxfId="8"/>
+      <tableStyleElement type="firstRowStripe" dxfId="7"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="6"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="5"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="4"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="3"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="2"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="1"/>
+      <tableStyleElement type="pageFieldValues" dxfId="0"/>
     </tableStyle>
   </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2412,28 +1795,28 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="24.3796296296296" customWidth="1"/>
-    <col min="3" max="4" width="38.8796296296296" customWidth="1"/>
-    <col min="5" max="5" width="16.6296296296296" customWidth="1"/>
+    <col min="1" max="1" width="24.375" customWidth="1"/>
+    <col min="3" max="4" width="38.875" customWidth="1"/>
+    <col min="5" max="5" width="16.625" customWidth="1"/>
     <col min="7" max="7" width="61.25" customWidth="1"/>
-    <col min="8" max="8" width="26.3796296296296" customWidth="1"/>
+    <col min="8" max="8" width="26.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2456,937 +1839,983 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="28.8" spans="1:8">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="1"/>
-      <c r="G2" s="1" t="s">
+      <c r="E2" s="4"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="4" t="s">
         <v>11</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="1"/>
-      <c r="G3" s="1" t="s">
+      <c r="E3" s="4"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="4" t="s">
         <v>16</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" ht="28.8" spans="1:7">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="A4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="1"/>
-      <c r="G4" s="1" t="s">
+      <c r="E4" s="4"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="4" t="s">
         <v>22</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="1"/>
-      <c r="G5" s="1" t="s">
+      <c r="E5" s="4"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="4" t="s">
         <v>24</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" ht="43.2" spans="1:7">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="1"/>
-      <c r="G6" s="1" t="s">
+      <c r="E6" s="4"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="7" ht="28.8" spans="1:7">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="A7" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="1"/>
-      <c r="G7" s="1" t="s">
+      <c r="E7" s="4"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="8" ht="28.8" spans="1:8">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="A8" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="4" t="s">
         <v>34</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="1"/>
-      <c r="G8" s="1" t="s">
+      <c r="E8" s="4"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="4" t="s">
         <v>36</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A9" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="4" t="s">
         <v>39</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E9" s="1"/>
-      <c r="G9" s="1"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="4"/>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" ht="28.8" spans="1:8">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="A10" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="4" t="s">
         <v>43</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E10" s="1"/>
-      <c r="G10" s="1" t="s">
+      <c r="E10" s="4"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="4" t="s">
         <v>45</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A11" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="1"/>
-      <c r="G11" s="1" t="s">
+      <c r="E11" s="4"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="12" ht="28.8" spans="1:8">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="A12" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="1"/>
-      <c r="G12" s="1" t="s">
+      <c r="E12" s="4"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="4" t="s">
         <v>52</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="13" ht="28.8" spans="1:8">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="A13" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="4" t="s">
         <v>55</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E13" s="1"/>
-      <c r="G13" s="1" t="s">
+      <c r="E13" s="4"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="4" t="s">
         <v>57</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="14" ht="28.8" spans="1:7">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="A14" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="4" t="s">
         <v>60</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="E14" s="1"/>
-      <c r="G14" s="1" t="s">
+      <c r="E14" s="4"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="15" ht="28.8" spans="1:8">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A15" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="F15" s="6"/>
+      <c r="G15" s="4" t="s">
         <v>67</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="16" ht="43.2" spans="1:8">
-      <c r="A16" s="1" t="s">
+    <row r="16" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="A16" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E16" s="1"/>
-      <c r="G16" s="1" t="s">
+      <c r="E16" s="4"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="4" t="s">
         <v>71</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="17" ht="72" spans="1:8">
-      <c r="A17" s="1" t="s">
+    <row r="17" spans="1:8" ht="54" x14ac:dyDescent="0.15">
+      <c r="A17" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="4" t="s">
         <v>74</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="E17" s="1"/>
-      <c r="G17" s="1" t="s">
+      <c r="E17" s="4"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="4" t="s">
         <v>76</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="18" ht="28.8" spans="1:8">
-      <c r="A18" s="1" t="s">
+    <row r="18" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="A18" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E18" s="1"/>
-      <c r="G18" s="1" t="s">
+      <c r="E18" s="4"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="4" t="s">
         <v>81</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="19" ht="28.8" spans="1:8">
-      <c r="A19" s="1" t="s">
+    <row r="19" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="A19" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E19" s="1"/>
-      <c r="G19" s="1" t="s">
+      <c r="E19" s="4"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="4" t="s">
         <v>85</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="20" ht="28.8" spans="1:8">
-      <c r="A20" s="1" t="s">
+    <row r="20" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="A20" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="4" t="s">
         <v>88</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="E20" s="1"/>
-      <c r="G20" s="1" t="s">
+      <c r="E20" s="4"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="4" t="s">
         <v>90</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="21" ht="28.8" spans="1:8">
-      <c r="A21" s="1" t="s">
+    <row r="21" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="A21" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E21" s="1"/>
-      <c r="G21" s="1" t="s">
+      <c r="E21" s="4"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="4" t="s">
         <v>93</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="22" ht="28.8" spans="1:8">
-      <c r="A22" s="1" t="s">
+    <row r="22" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="A22" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E22" s="1"/>
-      <c r="G22" s="1" t="s">
+      <c r="E22" s="4"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="4" t="s">
         <v>96</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="23" ht="28.8" spans="1:8">
-      <c r="A23" s="1" t="s">
+    <row r="23" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="A23" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="4" t="s">
         <v>98</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="E23" s="1"/>
-      <c r="G23" s="1" t="s">
+      <c r="E23" s="4"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="4" t="s">
         <v>100</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="1" t="s">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A24" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="E24" s="1"/>
-      <c r="G24" s="1" t="s">
+      <c r="E24" s="4"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="4" t="s">
         <v>105</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="25" ht="28.8" spans="1:8">
-      <c r="A25" s="1" t="s">
+    <row r="25" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="A25" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E25" s="1"/>
-      <c r="G25" s="1" t="s">
+      <c r="E25" s="4"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="4" t="s">
         <v>109</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="26" ht="28.8" spans="1:8">
-      <c r="A26" s="1" t="s">
+    <row r="26" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="A26" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D26" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="E26" s="1"/>
-      <c r="G26" s="1" t="s">
+      <c r="E26" s="4"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="4" t="s">
         <v>115</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="27" ht="28.8" spans="1:8">
+    <row r="27" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="A27" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="4" t="s">
         <v>118</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="E27" s="1"/>
-      <c r="G27" s="1" t="s">
+      <c r="E27" s="4"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="4" t="s">
         <v>120</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="1" t="s">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A28" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="D28" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E28" s="1"/>
-      <c r="G28" s="1" t="s">
+      <c r="E28" s="4"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="4" t="s">
         <v>124</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="29" ht="28.8" spans="1:8">
-      <c r="A29" s="1" t="s">
+    <row r="29" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="A29" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="D29" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="E29" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="G29" s="1" t="s">
+      <c r="F29" s="6"/>
+      <c r="G29" s="4" t="s">
         <v>129</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="1" t="s">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A30" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="4" t="s">
         <v>132</v>
       </c>
       <c r="D30" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="E30" s="1"/>
-      <c r="G30" s="1" t="s">
+      <c r="E30" s="4"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="4" t="s">
         <v>134</v>
       </c>
       <c r="H30" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="31" ht="28.8" spans="1:8">
-      <c r="A31" s="1" t="s">
+    <row r="31" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="A31" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" s="4" t="s">
         <v>136</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="E31" s="1"/>
-      <c r="G31" s="1" t="s">
+      <c r="E31" s="4"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="4" t="s">
         <v>138</v>
       </c>
       <c r="H31" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="1" t="s">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A32" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="D32" s="6" t="s">
+      <c r="D32" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E32" s="1"/>
-      <c r="G32" s="1" t="s">
+      <c r="E32" s="4"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="4" t="s">
         <v>142</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="33" ht="28.8" spans="1:8">
-      <c r="A33" s="1" t="s">
+    <row r="33" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="A33" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" s="4" t="s">
         <v>145</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="E33" s="1"/>
-      <c r="G33" s="1" t="s">
+      <c r="E33" s="4"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="4" t="s">
         <v>147</v>
       </c>
       <c r="H33" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
-      <c r="A34" s="1" t="s">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A34" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D34" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E34" s="1"/>
-      <c r="G34" s="1" t="s">
+      <c r="E34" s="4"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="4" t="s">
         <v>152</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
-      <c r="A35" s="1" t="s">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A35" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D35" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E35" s="1"/>
-      <c r="G35" s="1" t="s">
+      <c r="E35" s="4"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="4" t="s">
         <v>156</v>
       </c>
       <c r="H35" s="1" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
-      <c r="A36" s="1" t="s">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A36" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C36" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D36" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E36" s="1"/>
-      <c r="G36" s="1" t="s">
+      <c r="E36" s="4"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="4" t="s">
         <v>159</v>
       </c>
       <c r="H36" s="1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="37" ht="28.8" spans="1:8">
-      <c r="A37" s="1" t="s">
+    <row r="37" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="A37" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C37" s="4" t="s">
         <v>161</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="E37" s="1"/>
-      <c r="G37" s="1" t="s">
+      <c r="E37" s="4"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="4" t="s">
         <v>163</v>
       </c>
       <c r="H37" s="1" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="38" ht="28.8" spans="1:8">
+    <row r="38" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="A38" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="D38" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E38" s="1"/>
-      <c r="G38" s="1" t="s">
+      <c r="E38" s="4"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="4" t="s">
         <v>86</v>
       </c>
       <c r="H38" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
-      <c r="A39" s="1" t="s">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A39" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C39" s="4" t="s">
         <v>168</v>
       </c>
       <c r="D39" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="E39" s="1"/>
-      <c r="G39" s="1" t="s">
+      <c r="E39" s="4"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="4" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
-      <c r="A40" s="1" t="s">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A40" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C40" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="D40" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="E40" s="1"/>
-      <c r="G40" s="1" t="s">
+      <c r="E40" s="4"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="4" t="s">
         <v>173</v>
       </c>
       <c r="H40" s="1" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="41" ht="28.8" spans="1:7">
-      <c r="A41" s="1" t="s">
+    <row r="41" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="A41" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B41" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C41" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="D41" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E41" s="1"/>
-      <c r="G41" s="1" t="s">
+      <c r="E41" s="4"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="4" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="1" t="s">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A42" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B42" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C42" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="D42" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="E42" s="1"/>
-      <c r="G42" s="1" t="s">
+      <c r="E42" s="4"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="4" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="43" ht="28.8" spans="1:8">
-      <c r="A43" s="1" t="s">
+    <row r="43" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="A43" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B43" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C43" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="D43" s="3" t="s">
+      <c r="D43" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="E43" s="1"/>
-      <c r="G43" s="1" t="s">
+      <c r="E43" s="4"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="4" t="s">
         <v>186</v>
       </c>
       <c r="H43" s="1" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="44" ht="28.8" spans="1:7">
-      <c r="A44" s="1" t="s">
+    <row r="44" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="A44" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B44" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C44" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="D44" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E44" s="1"/>
-      <c r="G44" s="1" t="s">
+      <c r="E44" s="4"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="4" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
-      <c r="A45" s="1" t="s">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A45" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B45" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C45" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="D45" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="E45" s="1"/>
-      <c r="G45" s="1" t="s">
+      <c r="E45" s="4"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="4" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
-      <c r="A46" s="1" t="s">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A46" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B46" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C46" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="D46" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="E46" s="1"/>
-      <c r="G46" s="1" t="s">
+      <c r="E46" s="4"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="4" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="47" ht="43.2" spans="1:7">
-      <c r="A47" s="1" t="s">
+    <row r="47" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A47" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B47" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C47" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="D47" s="3" t="s">
+      <c r="D47" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="E47" s="1"/>
-      <c r="G47" s="1" t="s">
+      <c r="E47" s="4"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="4" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="48" ht="28.8" spans="1:8">
+    <row r="48" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
         <v>200</v>
       </c>
@@ -3396,7 +2825,7 @@
       <c r="C48" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="D48" s="8" t="s">
+      <c r="D48" s="3" t="s">
         <v>19</v>
       </c>
       <c r="E48" s="1"/>
@@ -3407,7 +2836,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="49" ht="28.8" spans="1:8">
+    <row r="49" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="A49" s="1" t="s">
         <v>203</v>
       </c>
@@ -3429,14 +2858,12 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H49">
-    <extLst/>
-  </autoFilter>
-  <sortState ref="A2:E48">
+  <autoFilter ref="A1:H49" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E48">
     <sortCondition ref="B2:B48"/>
   </sortState>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>